--- a/Archive/In-Output of Bloomberg's Model/Data_for_Experimentation_Archive/Cleaned/Bloomberg-data.xlsx
+++ b/Archive/In-Output of Bloomberg's Model/Data_for_Experimentation_Archive/Cleaned/Bloomberg-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Archive\In-Output of Bloomberg's Model\Data_for_Experimentation_Archive\Cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6F3449-1132-4B2F-A66C-2B589C086D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238BBBAC-7407-4FA3-9AF0-F03244F19083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2610" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43485" yWindow="2310" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SPY US Equity</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>EEM US Equity</t>
-  </si>
-  <si>
-    <t>GBTC US Equity</t>
   </si>
   <si>
     <t>IWM US Equity</t>
@@ -448,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +456,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -496,11 +493,8 @@
       <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42216</v>
       </c>
@@ -540,11 +534,8 @@
       <c r="M2">
         <v>37.119999999999997</v>
       </c>
-      <c r="N2">
-        <v>0.33131868131868131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42247</v>
       </c>
@@ -584,11 +575,8 @@
       <c r="M3">
         <v>33.840000000000003</v>
       </c>
-      <c r="N3">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42277</v>
       </c>
@@ -628,11 +616,8 @@
       <c r="M4">
         <v>32.78</v>
       </c>
-      <c r="N4">
-        <v>0.30780219780219781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42307</v>
       </c>
@@ -672,11 +657,8 @@
       <c r="M5">
         <v>34.869999999999997</v>
       </c>
-      <c r="N5">
-        <v>0.37252747252747248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42338</v>
       </c>
@@ -716,11 +698,8 @@
       <c r="M6">
         <v>33.99</v>
       </c>
-      <c r="N6">
-        <v>0.49450549450549453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42369</v>
       </c>
@@ -760,11 +739,8 @@
       <c r="M7">
         <v>32.19</v>
       </c>
-      <c r="N7">
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42398</v>
       </c>
@@ -804,11 +780,8 @@
       <c r="M8">
         <v>30.57</v>
       </c>
-      <c r="N8">
-        <v>0.47252747252747251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42429</v>
       </c>
@@ -848,11 +821,8 @@
       <c r="M9">
         <v>30.32</v>
       </c>
-      <c r="N9">
-        <v>0.61538461538461542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42460</v>
       </c>
@@ -892,11 +862,8 @@
       <c r="M10">
         <v>34.25</v>
       </c>
-      <c r="N10">
-        <v>0.59780219780219779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42489</v>
       </c>
@@ -936,11 +903,8 @@
       <c r="M11">
         <v>34.39</v>
       </c>
-      <c r="N11">
-        <v>0.78791208791208789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42521</v>
       </c>
@@ -980,11 +944,8 @@
       <c r="M12">
         <v>33.119999999999997</v>
       </c>
-      <c r="N12">
-        <v>0.85824175824175819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42551</v>
       </c>
@@ -1024,11 +985,8 @@
       <c r="M13">
         <v>34.36</v>
       </c>
-      <c r="N13">
-        <v>1.313736263736264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42580</v>
       </c>
@@ -1068,11 +1026,8 @@
       <c r="M14">
         <v>36.204999999999998</v>
       </c>
-      <c r="N14">
-        <v>1.043956043956044</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42613</v>
       </c>
@@ -1112,11 +1067,8 @@
       <c r="M15">
         <v>36.53</v>
       </c>
-      <c r="N15">
-        <v>0.90109890109890112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42643</v>
       </c>
@@ -1156,11 +1108,8 @@
       <c r="M16">
         <v>37.450000000000003</v>
       </c>
-      <c r="N16">
-        <v>0.98901098901098905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42674</v>
       </c>
@@ -1200,11 +1149,8 @@
       <c r="M17">
         <v>37.14</v>
       </c>
-      <c r="N17">
-        <v>1.1857142857142859</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42704</v>
       </c>
@@ -1244,11 +1190,8 @@
       <c r="M18">
         <v>35.5</v>
       </c>
-      <c r="N18">
-        <v>1.0824175824175819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42734</v>
       </c>
@@ -1288,11 +1231,8 @@
       <c r="M19">
         <v>35.01</v>
       </c>
-      <c r="N19">
-        <v>1.3368131868131869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42766</v>
       </c>
@@ -1332,11 +1272,8 @@
       <c r="M20">
         <v>37.340000000000003</v>
       </c>
-      <c r="N20">
-        <v>1.1922527472527471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42794</v>
       </c>
@@ -1376,11 +1313,8 @@
       <c r="M21">
         <v>37.99</v>
       </c>
-      <c r="N21">
-        <v>1.2637362637362639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42825</v>
       </c>
@@ -1420,11 +1354,8 @@
       <c r="M22">
         <v>39.39</v>
       </c>
-      <c r="N22">
-        <v>1.2759340659340661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42853</v>
       </c>
@@ -1464,11 +1395,8 @@
       <c r="M23">
         <v>40.06</v>
       </c>
-      <c r="N23">
-        <v>1.5131868131868129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42886</v>
       </c>
@@ -1508,11 +1436,8 @@
       <c r="M24">
         <v>41.2</v>
       </c>
-      <c r="N24">
-        <v>5.319230769230769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42916</v>
       </c>
@@ -1552,11 +1477,8 @@
       <c r="M25">
         <v>41.39</v>
       </c>
-      <c r="N25">
-        <v>4.2857142857142856</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42947</v>
       </c>
@@ -1596,11 +1518,8 @@
       <c r="M26">
         <v>43.8</v>
       </c>
-      <c r="N26">
-        <v>4.615384615384615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42978</v>
       </c>
@@ -1640,11 +1559,8 @@
       <c r="M27">
         <v>44.83</v>
       </c>
-      <c r="N27">
-        <v>11.04395604395604</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43007</v>
       </c>
@@ -1684,11 +1600,8 @@
       <c r="M28">
         <v>44.81</v>
       </c>
-      <c r="N28">
-        <v>7.7142857142857144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43039</v>
       </c>
@@ -1728,11 +1641,8 @@
       <c r="M29">
         <v>46.28</v>
       </c>
-      <c r="N29">
-        <v>9.1028571428571432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43069</v>
       </c>
@@ -1772,11 +1682,8 @@
       <c r="M30">
         <v>46.1</v>
       </c>
-      <c r="N30">
-        <v>16.714285714285719</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43098</v>
       </c>
@@ -1816,11 +1723,8 @@
       <c r="M31">
         <v>47.12</v>
       </c>
-      <c r="N31">
-        <v>22.15384615384615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43131</v>
       </c>
@@ -1860,11 +1764,8 @@
       <c r="M32">
         <v>51.03</v>
       </c>
-      <c r="N32">
-        <v>15.59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43159</v>
       </c>
@@ -1904,11 +1805,8 @@
       <c r="M33">
         <v>48.02</v>
       </c>
-      <c r="N33">
-        <v>17.829999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43189</v>
       </c>
@@ -1948,11 +1846,8 @@
       <c r="M34">
         <v>48.28</v>
       </c>
-      <c r="N34">
-        <v>10.49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43220</v>
       </c>
@@ -1992,11 +1887,8 @@
       <c r="M35">
         <v>46.92</v>
       </c>
-      <c r="N35">
-        <v>15.85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43251</v>
       </c>
@@ -2036,11 +1928,8 @@
       <c r="M36">
         <v>45.69</v>
       </c>
-      <c r="N36">
-        <v>12.2799</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43280</v>
       </c>
@@ -2080,11 +1969,8 @@
       <c r="M37">
         <v>43.33</v>
       </c>
-      <c r="N37">
-        <v>8.5299999999999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43312</v>
       </c>
@@ -2124,11 +2010,8 @@
       <c r="M38">
         <v>44.86</v>
       </c>
-      <c r="N38">
-        <v>10.42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43343</v>
       </c>
@@ -2168,11 +2051,8 @@
       <c r="M39">
         <v>43.17</v>
       </c>
-      <c r="N39">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43371</v>
       </c>
@@ -2212,11 +2092,8 @@
       <c r="M40">
         <v>42.92</v>
       </c>
-      <c r="N40">
-        <v>7.94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43404</v>
       </c>
@@ -2256,11 +2133,8 @@
       <c r="M41">
         <v>39.159999999999997</v>
       </c>
-      <c r="N41">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43434</v>
       </c>
@@ -2300,11 +2174,8 @@
       <c r="M42">
         <v>41.08</v>
       </c>
-      <c r="N42">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43465</v>
       </c>
@@ -2344,11 +2215,8 @@
       <c r="M43">
         <v>39.06</v>
       </c>
-      <c r="N43">
-        <v>3.9649999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43496</v>
       </c>
@@ -2388,11 +2256,8 @@
       <c r="M44">
         <v>43.1</v>
       </c>
-      <c r="N44">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43524</v>
       </c>
@@ -2432,11 +2297,8 @@
       <c r="M45">
         <v>42.44</v>
       </c>
-      <c r="N45">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43553</v>
       </c>
@@ -2476,11 +2338,8 @@
       <c r="M46">
         <v>42.92</v>
       </c>
-      <c r="N46">
-        <v>4.78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43585</v>
       </c>
@@ -2520,11 +2379,8 @@
       <c r="M47">
         <v>43.93</v>
       </c>
-      <c r="N47">
-        <v>6.61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43616</v>
       </c>
@@ -2564,11 +2420,8 @@
       <c r="M48">
         <v>40.71</v>
       </c>
-      <c r="N48">
-        <v>11.06</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43644</v>
       </c>
@@ -2608,11 +2461,8 @@
       <c r="M49">
         <v>42.91</v>
       </c>
-      <c r="N49">
-        <v>15.13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43677</v>
       </c>
@@ -2652,11 +2502,8 @@
       <c r="M50">
         <v>41.77</v>
       </c>
-      <c r="N50">
-        <v>13.64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43707</v>
       </c>
@@ -2696,11 +2543,8 @@
       <c r="M51">
         <v>40.19</v>
       </c>
-      <c r="N51">
-        <v>11.72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43738</v>
       </c>
@@ -2740,11 +2584,8 @@
       <c r="M52">
         <v>40.869999999999997</v>
       </c>
-      <c r="N52">
-        <v>10.59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43769</v>
       </c>
@@ -2784,11 +2625,8 @@
       <c r="M53">
         <v>42.58</v>
       </c>
-      <c r="N53">
-        <v>11.12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43798</v>
       </c>
@@ -2828,11 +2666,8 @@
       <c r="M54">
         <v>42.54</v>
       </c>
-      <c r="N54">
-        <v>9.57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43830</v>
       </c>
@@ -2872,11 +2707,8 @@
       <c r="M55">
         <v>44.87</v>
       </c>
-      <c r="N55">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43861</v>
       </c>
@@ -2916,11 +2748,8 @@
       <c r="M56">
         <v>42.11</v>
       </c>
-      <c r="N56">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43889</v>
       </c>
@@ -2960,11 +2789,8 @@
       <c r="M57">
         <v>40.520000000000003</v>
       </c>
-      <c r="N57">
-        <v>9.85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43921</v>
       </c>
@@ -3004,11 +2830,8 @@
       <c r="M58">
         <v>34.130000000000003</v>
       </c>
-      <c r="N58">
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43951</v>
       </c>
@@ -3048,11 +2871,8 @@
       <c r="M59">
         <v>36.64</v>
       </c>
-      <c r="N59">
-        <v>9.8699999999999992</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43980</v>
       </c>
@@ -3092,11 +2912,8 @@
       <c r="M60">
         <v>37.729999999999997</v>
       </c>
-      <c r="N60">
-        <v>10.89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44012</v>
       </c>
@@ -3136,11 +2953,8 @@
       <c r="M61">
         <v>39.99</v>
       </c>
-      <c r="N61">
-        <v>9.6050000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44013</v>
       </c>
@@ -3179,9 +2993,6 @@
       </c>
       <c r="M62">
         <v>40.349998474121087</v>
-      </c>
-      <c r="N62">
-        <v>9.9000005722045898</v>
       </c>
     </row>
   </sheetData>
